--- a/Descargas/R15_Corte De Apelaciones De Santiago_Ingresos Corte_2020-Diciembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De Santiago_Ingresos Corte_2020-Diciembre.xlsx
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8">
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11">
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="14">
